--- a/Code/Results/Cases/Case_0_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9252724982729691</v>
+        <v>1.064803118933699</v>
       </c>
       <c r="D2">
-        <v>0.9374807299400281</v>
+        <v>1.063342780139254</v>
       </c>
       <c r="E2">
-        <v>0.947007665602324</v>
+        <v>1.068114835142486</v>
       </c>
       <c r="F2">
-        <v>0.9539409690200803</v>
+        <v>1.074854466764149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040849734442014</v>
+        <v>1.028648454665347</v>
       </c>
       <c r="J2">
-        <v>0.9499436569825025</v>
+        <v>1.069761488006837</v>
       </c>
       <c r="K2">
-        <v>0.9498857012527262</v>
+        <v>1.066061677507009</v>
       </c>
       <c r="L2">
-        <v>0.9592582008026553</v>
+        <v>1.070820883502488</v>
       </c>
       <c r="M2">
-        <v>0.9660815935807544</v>
+        <v>1.077542578388205</v>
       </c>
       <c r="N2">
-        <v>0.9512926859354781</v>
+        <v>1.071280672023164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9456807948024057</v>
+        <v>1.067841440911353</v>
       </c>
       <c r="D3">
-        <v>0.9559228038454435</v>
+        <v>1.06612893956993</v>
       </c>
       <c r="E3">
-        <v>0.9648483691675196</v>
+        <v>1.070801267243663</v>
       </c>
       <c r="F3">
-        <v>0.9720221581266885</v>
+        <v>1.077565724272627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042252047504471</v>
+        <v>1.028732841268858</v>
       </c>
       <c r="J3">
-        <v>0.967770365801666</v>
+        <v>1.072445289606057</v>
       </c>
       <c r="K3">
-        <v>0.9671525555121163</v>
+        <v>1.068657890154306</v>
       </c>
       <c r="L3">
-        <v>0.9759516968625886</v>
+        <v>1.073318588937215</v>
       </c>
       <c r="M3">
-        <v>0.9830259953574464</v>
+        <v>1.080066402219196</v>
       </c>
       <c r="N3">
-        <v>0.9691447107259167</v>
+        <v>1.073968284928492</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9578647481774617</v>
+        <v>1.069794240581435</v>
       </c>
       <c r="D4">
-        <v>0.9669444156894021</v>
+        <v>1.067919331974356</v>
       </c>
       <c r="E4">
-        <v>0.9755130548406516</v>
+        <v>1.072527093475551</v>
       </c>
       <c r="F4">
-        <v>0.9828335828469662</v>
+        <v>1.079306831570139</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043071865204168</v>
+        <v>1.028783977858426</v>
       </c>
       <c r="J4">
-        <v>0.9784113419715752</v>
+        <v>1.074168962578275</v>
       </c>
       <c r="K4">
-        <v>0.9774588730568453</v>
+        <v>1.070325168478559</v>
       </c>
       <c r="L4">
-        <v>0.9859162848778688</v>
+        <v>1.074922064028128</v>
       </c>
       <c r="M4">
-        <v>0.9931437040956755</v>
+        <v>1.081685995128424</v>
       </c>
       <c r="N4">
-        <v>0.9798007983025244</v>
+        <v>1.075694405714038</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9627788179198615</v>
+        <v>1.070612127963329</v>
       </c>
       <c r="D5">
-        <v>0.9713918344592005</v>
+        <v>1.068669116758371</v>
       </c>
       <c r="E5">
-        <v>0.9798167674427781</v>
+        <v>1.073249722875813</v>
       </c>
       <c r="F5">
-        <v>0.9871968734754489</v>
+        <v>1.080035697784476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043397874328725</v>
+        <v>1.028804650050469</v>
       </c>
       <c r="J5">
-        <v>0.9827021915934741</v>
+        <v>1.074890580635758</v>
       </c>
       <c r="K5">
-        <v>0.9816146301843919</v>
+        <v>1.071023143217264</v>
       </c>
       <c r="L5">
-        <v>0.9899341580129829</v>
+        <v>1.075593197972291</v>
       </c>
       <c r="M5">
-        <v>0.9972237679831099</v>
+        <v>1.082363717647209</v>
       </c>
       <c r="N5">
-        <v>0.9840977414230537</v>
+        <v>1.076417048551934</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9635925992255512</v>
+        <v>1.070749277434424</v>
       </c>
       <c r="D6">
-        <v>0.9721284487789361</v>
+        <v>1.068794841436469</v>
       </c>
       <c r="E6">
-        <v>0.9805295921292162</v>
+        <v>1.073370887264649</v>
       </c>
       <c r="F6">
-        <v>0.9879195784265372</v>
+        <v>1.080157898376158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043451576310886</v>
+        <v>1.028808072713358</v>
       </c>
       <c r="J6">
-        <v>0.9834127012316315</v>
+        <v>1.075011569047491</v>
       </c>
       <c r="K6">
-        <v>0.9823027609543562</v>
+        <v>1.071140165555577</v>
       </c>
       <c r="L6">
-        <v>0.9905994466840418</v>
+        <v>1.075705712487539</v>
       </c>
       <c r="M6">
-        <v>0.9978993718601487</v>
+        <v>1.082477327425824</v>
       </c>
       <c r="N6">
-        <v>0.9848092600663935</v>
+        <v>1.076538208781089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9579311864975345</v>
+        <v>1.069805181175169</v>
       </c>
       <c r="D7">
-        <v>0.9670045370069539</v>
+        <v>1.067929361907283</v>
       </c>
       <c r="E7">
-        <v>0.9755712325432002</v>
+        <v>1.072536760607298</v>
       </c>
       <c r="F7">
-        <v>0.9828925649007952</v>
+        <v>1.079316582774577</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043076291966967</v>
+        <v>1.028784257319507</v>
       </c>
       <c r="J7">
-        <v>0.9784693584997692</v>
+        <v>1.07417861661088</v>
       </c>
       <c r="K7">
-        <v>0.9775150636155344</v>
+        <v>1.070334506335707</v>
       </c>
       <c r="L7">
-        <v>0.9859706116951517</v>
+        <v>1.074931043311548</v>
       </c>
       <c r="M7">
-        <v>0.9931988704339977</v>
+        <v>1.081695063184862</v>
       </c>
       <c r="N7">
-        <v>0.9798588972208431</v>
+        <v>1.075704073456477</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.932406489538406</v>
+        <v>1.065832721540007</v>
       </c>
       <c r="D8">
-        <v>0.9439244369228323</v>
+        <v>1.064287001113999</v>
       </c>
       <c r="E8">
-        <v>0.9532405139364551</v>
+        <v>1.069025358312096</v>
       </c>
       <c r="F8">
-        <v>0.9602569289612071</v>
+        <v>1.075773541859688</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041343394580306</v>
+        <v>1.028677694121013</v>
       </c>
       <c r="J8">
-        <v>0.9561752449942729</v>
+        <v>1.070671216753163</v>
       </c>
       <c r="K8">
-        <v>0.9559216633998707</v>
+        <v>1.066941745493738</v>
       </c>
       <c r="L8">
-        <v>0.9650934733716338</v>
+        <v>1.071667671653904</v>
       </c>
       <c r="M8">
-        <v>0.9720035859996426</v>
+        <v>1.078398355395186</v>
       </c>
       <c r="N8">
-        <v>0.9575331235169984</v>
+        <v>1.072191692688657</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8771451710476654</v>
+        <v>1.058727539156332</v>
       </c>
       <c r="D9">
-        <v>0.8941103474757396</v>
+        <v>1.057769683307074</v>
       </c>
       <c r="E9">
-        <v>0.9050875070512228</v>
+        <v>1.06273867565982</v>
       </c>
       <c r="F9">
-        <v>0.911499927005032</v>
+        <v>1.069425112458935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037464378752731</v>
+        <v>1.028463156652967</v>
       </c>
       <c r="J9">
-        <v>0.9079306156113036</v>
+        <v>1.064388044721041</v>
       </c>
       <c r="K9">
-        <v>0.9091918235825717</v>
+        <v>1.060862843502671</v>
       </c>
       <c r="L9">
-        <v>0.9199342452050341</v>
+        <v>1.065816426539951</v>
       </c>
       <c r="M9">
-        <v>0.9262129935959056</v>
+        <v>1.072482374613625</v>
       </c>
       <c r="N9">
-        <v>0.909219981226569</v>
+        <v>1.06589959783156</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8270845043728302</v>
+        <v>1.053914142227469</v>
       </c>
       <c r="D10">
-        <v>0.8492340025732189</v>
+        <v>1.053352894200224</v>
       </c>
       <c r="E10">
-        <v>0.8617959915193483</v>
+        <v>1.058475761367307</v>
       </c>
       <c r="F10">
-        <v>0.8677716015294857</v>
+        <v>1.065116999489558</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033932993933484</v>
+        <v>1.028301843409431</v>
       </c>
       <c r="J10">
-        <v>0.8643509620439362</v>
+        <v>1.060124965100927</v>
       </c>
       <c r="K10">
-        <v>0.8669882520745092</v>
+        <v>1.056737617463323</v>
       </c>
       <c r="L10">
-        <v>0.8792065983017109</v>
+        <v>1.061842932968151</v>
       </c>
       <c r="M10">
-        <v>0.8850234751084137</v>
+        <v>1.068461693385813</v>
       </c>
       <c r="N10">
-        <v>0.8655784395524797</v>
+        <v>1.061630464149403</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7985895318046807</v>
+        <v>1.051810375036396</v>
       </c>
       <c r="D11">
-        <v>0.8238289863022196</v>
+        <v>1.051422099653236</v>
       </c>
       <c r="E11">
-        <v>0.8373408589364388</v>
+        <v>1.056611671158382</v>
       </c>
       <c r="F11">
-        <v>0.843130666673656</v>
+        <v>1.063232379842366</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031955882703569</v>
+        <v>1.028227586195438</v>
       </c>
       <c r="J11">
-        <v>0.8396390136964366</v>
+        <v>1.058260180539964</v>
       </c>
       <c r="K11">
-        <v>0.8430643996473147</v>
+        <v>1.054932956951989</v>
       </c>
       <c r="L11">
-        <v>0.8561566095016158</v>
+        <v>1.060104008802551</v>
       </c>
       <c r="M11">
-        <v>0.8617722478659174</v>
+        <v>1.066701379836958</v>
       </c>
       <c r="N11">
-        <v>0.8408313974038265</v>
+        <v>1.05976303138047</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7860963257377518</v>
+        <v>1.051025889532612</v>
       </c>
       <c r="D12">
-        <v>0.8127282887483285</v>
+        <v>1.050702060779343</v>
       </c>
       <c r="E12">
-        <v>0.8266696717692187</v>
+        <v>1.055916424686981</v>
       </c>
       <c r="F12">
-        <v>0.8323946412185036</v>
+        <v>1.062529363749193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031101167562703</v>
+        <v>1.028199335389026</v>
       </c>
       <c r="J12">
-        <v>0.8288325213245725</v>
+        <v>1.057564580091119</v>
       </c>
       <c r="K12">
-        <v>0.832605107426883</v>
+        <v>1.054259757307709</v>
       </c>
       <c r="L12">
-        <v>0.8460898013403441</v>
+        <v>1.059455235668309</v>
       </c>
       <c r="M12">
-        <v>0.8516333529713425</v>
+        <v>1.06604451789037</v>
       </c>
       <c r="N12">
-        <v>0.8300095585732723</v>
+        <v>1.059066443099201</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7888920106155811</v>
+        <v>1.051194304408946</v>
       </c>
       <c r="D13">
-        <v>0.8152102167141381</v>
+        <v>1.050856642548641</v>
       </c>
       <c r="E13">
-        <v>0.8290547469104647</v>
+        <v>1.056065687635945</v>
       </c>
       <c r="F13">
-        <v>0.8347932969667868</v>
+        <v>1.062680299830267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031291706466891</v>
+        <v>1.028205425630045</v>
       </c>
       <c r="J13">
-        <v>0.8312491178746901</v>
+        <v>1.057713923357612</v>
       </c>
       <c r="K13">
-        <v>0.8349439064333892</v>
+        <v>1.054404292395569</v>
       </c>
       <c r="L13">
-        <v>0.8483402409059416</v>
+        <v>1.059594530712313</v>
       </c>
       <c r="M13">
-        <v>0.8538990260962559</v>
+        <v>1.066185554522896</v>
       </c>
       <c r="N13">
-        <v>0.8324295869676785</v>
+        <v>1.059215998450262</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7976055529659472</v>
+        <v>1.051745592188712</v>
       </c>
       <c r="D14">
-        <v>0.8229538009664605</v>
+        <v>1.051362639904131</v>
       </c>
       <c r="E14">
-        <v>0.8364991984096964</v>
+        <v>1.056554260417879</v>
       </c>
       <c r="F14">
-        <v>0.8422835160935885</v>
+        <v>1.063174329802368</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031888268627715</v>
+        <v>1.028225264646178</v>
       </c>
       <c r="J14">
-        <v>0.8387872115416379</v>
+        <v>1.058202742514026</v>
       </c>
       <c r="K14">
-        <v>0.8422399019811928</v>
+        <v>1.054877369177122</v>
       </c>
       <c r="L14">
-        <v>0.85536280600517</v>
+        <v>1.060050439922406</v>
       </c>
       <c r="M14">
-        <v>0.8609723957896217</v>
+        <v>1.066647145267998</v>
       </c>
       <c r="N14">
-        <v>0.8399783855922649</v>
+        <v>1.059705511785946</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8026744784398767</v>
+        <v>1.052084850687913</v>
       </c>
       <c r="D15">
-        <v>0.8274638442759491</v>
+        <v>1.05167401989537</v>
       </c>
       <c r="E15">
-        <v>0.8408370798530654</v>
+        <v>1.056854906724887</v>
       </c>
       <c r="F15">
-        <v>0.8466503641303275</v>
+        <v>1.063478319369055</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032237093344488</v>
+        <v>1.02823739936414</v>
       </c>
       <c r="J15">
-        <v>0.8431764093424332</v>
+        <v>1.058503527814859</v>
       </c>
       <c r="K15">
-        <v>0.8464885128460549</v>
+        <v>1.055168464192695</v>
       </c>
       <c r="L15">
-        <v>0.8594536844958933</v>
+        <v>1.060330958753088</v>
       </c>
       <c r="M15">
-        <v>0.8650950973445554</v>
+        <v>1.066931145616353</v>
       </c>
       <c r="N15">
-        <v>0.8443738165573852</v>
+        <v>1.060006724236408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8287786262112529</v>
+        <v>1.054053340775595</v>
       </c>
       <c r="D16">
-        <v>0.8507478927032095</v>
+        <v>1.053480640136242</v>
       </c>
       <c r="E16">
-        <v>0.8632546114133752</v>
+        <v>1.058599082294152</v>
       </c>
       <c r="F16">
-        <v>0.8692428251451841</v>
+        <v>1.06524166269054</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034051557451433</v>
+        <v>1.02830667823147</v>
       </c>
       <c r="J16">
-        <v>0.8658226609793135</v>
+        <v>1.060248318777045</v>
       </c>
       <c r="K16">
-        <v>0.8684132349724845</v>
+        <v>1.056856990277479</v>
       </c>
       <c r="L16">
-        <v>0.8805804856177766</v>
+        <v>1.061957944142286</v>
       </c>
       <c r="M16">
-        <v>0.8864108466603886</v>
+        <v>1.068578103936241</v>
       </c>
       <c r="N16">
-        <v>0.8670522284691515</v>
+        <v>1.061753993001891</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8429649393372912</v>
+        <v>1.055282810522547</v>
       </c>
       <c r="D17">
-        <v>0.863439026254434</v>
+        <v>1.054608912377673</v>
       </c>
       <c r="E17">
-        <v>0.8754877702867014</v>
+        <v>1.059688207717183</v>
       </c>
       <c r="F17">
-        <v>0.8815879029781647</v>
+        <v>1.066342554936718</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03504788189521</v>
+        <v>1.028348950716307</v>
       </c>
       <c r="J17">
-        <v>0.8781560056967386</v>
+        <v>1.061337661747505</v>
       </c>
       <c r="K17">
-        <v>0.8803558782469504</v>
+        <v>1.057911157719747</v>
       </c>
       <c r="L17">
-        <v>0.8920986954994189</v>
+        <v>1.062973520813787</v>
       </c>
       <c r="M17">
-        <v>0.8980482296663044</v>
+        <v>1.069605952871002</v>
       </c>
       <c r="N17">
-        <v>0.8794030879507294</v>
+        <v>1.062844882964318</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8506597395359476</v>
+        <v>1.055998062753615</v>
       </c>
       <c r="D18">
-        <v>0.8703328566120065</v>
+        <v>1.055265256602982</v>
       </c>
       <c r="E18">
-        <v>0.8821366362273683</v>
+        <v>1.060321725270748</v>
       </c>
       <c r="F18">
-        <v>0.8883020449112261</v>
+        <v>1.066982843444614</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035590471084003</v>
+        <v>1.028373182710125</v>
       </c>
       <c r="J18">
-        <v>0.8848523406690119</v>
+        <v>1.061971246277926</v>
       </c>
       <c r="K18">
-        <v>0.8868406147100332</v>
+        <v>1.058524266481536</v>
       </c>
       <c r="L18">
-        <v>0.8983556401782136</v>
+        <v>1.063564123363702</v>
       </c>
       <c r="M18">
-        <v>0.9043743122701985</v>
+        <v>1.070203621312534</v>
       </c>
       <c r="N18">
-        <v>0.8861089324867438</v>
+        <v>1.063479367257445</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8531986198951579</v>
+        <v>1.05624163048534</v>
       </c>
       <c r="D19">
-        <v>0.8726089334968619</v>
+        <v>1.055488758053856</v>
       </c>
       <c r="E19">
-        <v>0.8843323908163524</v>
+        <v>1.060537444482286</v>
       </c>
       <c r="F19">
-        <v>0.8905200104966333</v>
+        <v>1.067200855701783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035769758576489</v>
+        <v>1.028381373319228</v>
       </c>
       <c r="J19">
-        <v>0.8870627122986574</v>
+        <v>1.062186978238866</v>
       </c>
       <c r="K19">
-        <v>0.8889812125465191</v>
+        <v>1.058733023685605</v>
       </c>
       <c r="L19">
-        <v>0.9004214302145185</v>
+        <v>1.063765206948216</v>
       </c>
       <c r="M19">
-        <v>0.9064635787798249</v>
+        <v>1.070407098528353</v>
       </c>
       <c r="N19">
-        <v>0.8883224430976367</v>
+        <v>1.063695405582514</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8415063480361067</v>
+        <v>1.055151095008557</v>
       </c>
       <c r="D20">
-        <v>0.8621330386591948</v>
+        <v>1.054488042034773</v>
       </c>
       <c r="E20">
-        <v>0.8742284826031173</v>
+        <v>1.059571536703624</v>
       </c>
       <c r="F20">
-        <v>0.880316595784581</v>
+        <v>1.066224631016253</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034945184170519</v>
+        <v>1.028344459265166</v>
       </c>
       <c r="J20">
-        <v>0.8768871792895784</v>
+        <v>1.061220973608263</v>
       </c>
       <c r="K20">
-        <v>0.8791271851036158</v>
+        <v>1.057798239265061</v>
       </c>
       <c r="L20">
-        <v>0.8909133677866079</v>
+        <v>1.062864742432393</v>
       </c>
       <c r="M20">
-        <v>0.8968501452974776</v>
+        <v>1.069495867340812</v>
       </c>
       <c r="N20">
-        <v>0.8781324596645348</v>
+        <v>1.062728029114534</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7951058984210931</v>
+        <v>1.051583336910694</v>
       </c>
       <c r="D21">
-        <v>0.8207311871582225</v>
+        <v>1.05121371600412</v>
       </c>
       <c r="E21">
-        <v>0.8343619795227815</v>
+        <v>1.056410467160771</v>
       </c>
       <c r="F21">
-        <v>0.8401326416047139</v>
+        <v>1.063028933517012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031716726253654</v>
+        <v>1.028219441051515</v>
       </c>
       <c r="J21">
-        <v>0.8366238364935823</v>
+        <v>1.058058879378084</v>
       </c>
       <c r="K21">
-        <v>0.8401459207405406</v>
+        <v>1.054738139874437</v>
       </c>
       <c r="L21">
-        <v>0.8533469639840867</v>
+        <v>1.059916265759108</v>
       </c>
       <c r="M21">
-        <v>0.8589414702312553</v>
+        <v>1.066511302005811</v>
       </c>
       <c r="N21">
-        <v>0.8378119383034986</v>
+        <v>1.059561444347851</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7526784376069471</v>
+        <v>1.049322422938154</v>
       </c>
       <c r="D22">
-        <v>0.7831653735371642</v>
+        <v>1.049138439120744</v>
       </c>
       <c r="E22">
-        <v>0.7983000717557714</v>
+        <v>1.054406490579207</v>
       </c>
       <c r="F22">
-        <v>0.8039067565243235</v>
+        <v>1.061002351323617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028859915927741</v>
+        <v>1.028136966922653</v>
       </c>
       <c r="J22">
-        <v>0.8000280284664593</v>
+        <v>1.056053701440421</v>
       </c>
       <c r="K22">
-        <v>0.8047359377907592</v>
+        <v>1.052797485476316</v>
       </c>
       <c r="L22">
-        <v>0.8193024391904399</v>
+        <v>1.058045847638856</v>
       </c>
       <c r="M22">
-        <v>0.8247062355784217</v>
+        <v>1.064617361226256</v>
       </c>
       <c r="N22">
-        <v>0.8011641600313791</v>
+        <v>1.057553418827519</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7773039615198617</v>
+        <v>1.050522696389608</v>
       </c>
       <c r="D23">
-        <v>0.804931077399915</v>
+        <v>1.050240190654693</v>
       </c>
       <c r="E23">
-        <v>0.8191799373804421</v>
+        <v>1.055470434407311</v>
       </c>
       <c r="F23">
-        <v>0.824865787326781</v>
+        <v>1.062078357879606</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030504816365822</v>
+        <v>1.028181056996184</v>
       </c>
       <c r="J23">
-        <v>0.8212388840998672</v>
+        <v>1.057118335792264</v>
       </c>
       <c r="K23">
-        <v>0.8252565570133075</v>
+        <v>1.053827876156322</v>
       </c>
       <c r="L23">
-        <v>0.8390212087448102</v>
+        <v>1.059038998255858</v>
       </c>
       <c r="M23">
-        <v>0.8445203137357342</v>
+        <v>1.065623060574729</v>
       </c>
       <c r="N23">
-        <v>0.8224051375127054</v>
+        <v>1.058619565082257</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8421671682080889</v>
+        <v>1.05521061737186</v>
       </c>
       <c r="D24">
-        <v>0.862724690021028</v>
+        <v>1.05454266356568</v>
       </c>
       <c r="E24">
-        <v>0.874798965709448</v>
+        <v>1.059624260716971</v>
       </c>
       <c r="F24">
-        <v>0.8808925101747351</v>
+        <v>1.066277921449956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034991705189976</v>
+        <v>1.028346490071037</v>
       </c>
       <c r="J24">
-        <v>0.8774620054077169</v>
+        <v>1.06127370554493</v>
       </c>
       <c r="K24">
-        <v>0.8796838277163381</v>
+        <v>1.057849267715412</v>
       </c>
       <c r="L24">
-        <v>0.8914503560162107</v>
+        <v>1.062913900152391</v>
       </c>
       <c r="M24">
-        <v>0.8973928989962395</v>
+        <v>1.069545615990366</v>
       </c>
       <c r="N24">
-        <v>0.8787081021016944</v>
+        <v>1.062780835936599</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8930957079968465</v>
+        <v>1.060577461179434</v>
       </c>
       <c r="D25">
-        <v>0.9084630865000376</v>
+        <v>1.059466840484667</v>
       </c>
       <c r="E25">
-        <v>0.9189532364597369</v>
+        <v>1.064376202729487</v>
       </c>
       <c r="F25">
-        <v>0.9255292811179476</v>
+        <v>1.071079313321076</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038592873866396</v>
+        <v>1.028521820747061</v>
       </c>
       <c r="J25">
-        <v>0.9218467340989158</v>
+        <v>1.066025096535231</v>
       </c>
       <c r="K25">
-        <v>0.9226706637884935</v>
+        <v>1.062446803120786</v>
       </c>
       <c r="L25">
-        <v>0.9329550801750101</v>
+        <v>1.067341552620832</v>
       </c>
       <c r="M25">
-        <v>0.9394052638388086</v>
+        <v>1.074024946704704</v>
       </c>
       <c r="N25">
-        <v>0.9231558621986347</v>
+        <v>1.067538974447099</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064803118933699</v>
+        <v>0.9252724982729669</v>
       </c>
       <c r="D2">
-        <v>1.063342780139254</v>
+        <v>0.9374807299400257</v>
       </c>
       <c r="E2">
-        <v>1.068114835142486</v>
+        <v>0.947007665602322</v>
       </c>
       <c r="F2">
-        <v>1.074854466764149</v>
+        <v>0.9539409690200781</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028648454665347</v>
+        <v>1.040849734442014</v>
       </c>
       <c r="J2">
-        <v>1.069761488006837</v>
+        <v>0.9499436569824999</v>
       </c>
       <c r="K2">
-        <v>1.066061677507009</v>
+        <v>0.9498857012527239</v>
       </c>
       <c r="L2">
-        <v>1.070820883502488</v>
+        <v>0.9592582008026533</v>
       </c>
       <c r="M2">
-        <v>1.077542578388205</v>
+        <v>0.9660815935807523</v>
       </c>
       <c r="N2">
-        <v>1.071280672023164</v>
+        <v>0.9512926859354753</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067841440911353</v>
+        <v>0.9456807948024061</v>
       </c>
       <c r="D3">
-        <v>1.06612893956993</v>
+        <v>0.9559228038454436</v>
       </c>
       <c r="E3">
-        <v>1.070801267243663</v>
+        <v>0.96484836916752</v>
       </c>
       <c r="F3">
-        <v>1.077565724272627</v>
+        <v>0.9720221581266894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028732841268858</v>
+        <v>1.042252047504471</v>
       </c>
       <c r="J3">
-        <v>1.072445289606057</v>
+        <v>0.9677703658016665</v>
       </c>
       <c r="K3">
-        <v>1.068657890154306</v>
+        <v>0.9671525555121167</v>
       </c>
       <c r="L3">
-        <v>1.073318588937215</v>
+        <v>0.9759516968625893</v>
       </c>
       <c r="M3">
-        <v>1.080066402219196</v>
+        <v>0.9830259953574473</v>
       </c>
       <c r="N3">
-        <v>1.073968284928492</v>
+        <v>0.9691447107259171</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069794240581435</v>
+        <v>0.9578647481774564</v>
       </c>
       <c r="D4">
-        <v>1.067919331974356</v>
+        <v>0.9669444156893973</v>
       </c>
       <c r="E4">
-        <v>1.072527093475551</v>
+        <v>0.9755130548406471</v>
       </c>
       <c r="F4">
-        <v>1.079306831570139</v>
+        <v>0.9828335828469621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028783977858426</v>
+        <v>1.043071865204167</v>
       </c>
       <c r="J4">
-        <v>1.074168962578275</v>
+        <v>0.9784113419715703</v>
       </c>
       <c r="K4">
-        <v>1.070325168478559</v>
+        <v>0.9774588730568405</v>
       </c>
       <c r="L4">
-        <v>1.074922064028128</v>
+        <v>0.9859162848778644</v>
       </c>
       <c r="M4">
-        <v>1.081685995128424</v>
+        <v>0.9931437040956715</v>
       </c>
       <c r="N4">
-        <v>1.075694405714038</v>
+        <v>0.9798007983025192</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070612127963329</v>
+        <v>0.9627788179198623</v>
       </c>
       <c r="D5">
-        <v>1.068669116758371</v>
+        <v>0.9713918344592017</v>
       </c>
       <c r="E5">
-        <v>1.073249722875813</v>
+        <v>0.9798167674427788</v>
       </c>
       <c r="F5">
-        <v>1.080035697784476</v>
+        <v>0.9871968734754497</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028804650050469</v>
+        <v>1.043397874328725</v>
       </c>
       <c r="J5">
-        <v>1.074890580635758</v>
+        <v>0.9827021915934749</v>
       </c>
       <c r="K5">
-        <v>1.071023143217264</v>
+        <v>0.9816146301843929</v>
       </c>
       <c r="L5">
-        <v>1.075593197972291</v>
+        <v>0.9899341580129837</v>
       </c>
       <c r="M5">
-        <v>1.082363717647209</v>
+        <v>0.9972237679831107</v>
       </c>
       <c r="N5">
-        <v>1.076417048551934</v>
+        <v>0.9840977414230547</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070749277434424</v>
+        <v>0.9635925992255507</v>
       </c>
       <c r="D6">
-        <v>1.068794841436469</v>
+        <v>0.9721284487789358</v>
       </c>
       <c r="E6">
-        <v>1.073370887264649</v>
+        <v>0.9805295921292154</v>
       </c>
       <c r="F6">
-        <v>1.080157898376158</v>
+        <v>0.9879195784265364</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028808072713358</v>
+        <v>1.043451576310886</v>
       </c>
       <c r="J6">
-        <v>1.075011569047491</v>
+        <v>0.9834127012316308</v>
       </c>
       <c r="K6">
-        <v>1.071140165555577</v>
+        <v>0.9823027609543555</v>
       </c>
       <c r="L6">
-        <v>1.075705712487539</v>
+        <v>0.990599446684041</v>
       </c>
       <c r="M6">
-        <v>1.082477327425824</v>
+        <v>0.997899371860148</v>
       </c>
       <c r="N6">
-        <v>1.076538208781089</v>
+        <v>0.9848092600663931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069805181175169</v>
+        <v>0.9579311864975324</v>
       </c>
       <c r="D7">
-        <v>1.067929361907283</v>
+        <v>0.9670045370069517</v>
       </c>
       <c r="E7">
-        <v>1.072536760607298</v>
+        <v>0.9755712325431983</v>
       </c>
       <c r="F7">
-        <v>1.079316582774577</v>
+        <v>0.9828925649007936</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028784257319507</v>
+        <v>1.043076291966968</v>
       </c>
       <c r="J7">
-        <v>1.07417861661088</v>
+        <v>0.9784693584997672</v>
       </c>
       <c r="K7">
-        <v>1.070334506335707</v>
+        <v>0.9775150636155323</v>
       </c>
       <c r="L7">
-        <v>1.074931043311548</v>
+        <v>0.9859706116951499</v>
       </c>
       <c r="M7">
-        <v>1.081695063184862</v>
+        <v>0.993198870433996</v>
       </c>
       <c r="N7">
-        <v>1.075704073456477</v>
+        <v>0.979858897220841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065832721540007</v>
+        <v>0.9324064895384037</v>
       </c>
       <c r="D8">
-        <v>1.064287001113999</v>
+        <v>0.9439244369228302</v>
       </c>
       <c r="E8">
-        <v>1.069025358312096</v>
+        <v>0.9532405139364529</v>
       </c>
       <c r="F8">
-        <v>1.075773541859688</v>
+        <v>0.9602569289612055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028677694121013</v>
+        <v>1.041343394580306</v>
       </c>
       <c r="J8">
-        <v>1.070671216753163</v>
+        <v>0.9561752449942705</v>
       </c>
       <c r="K8">
-        <v>1.066941745493738</v>
+        <v>0.9559216633998685</v>
       </c>
       <c r="L8">
-        <v>1.071667671653904</v>
+        <v>0.9650934733716313</v>
       </c>
       <c r="M8">
-        <v>1.078398355395186</v>
+        <v>0.9720035859996409</v>
       </c>
       <c r="N8">
-        <v>1.072191692688657</v>
+        <v>0.9575331235169962</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058727539156332</v>
+        <v>0.8771451710476628</v>
       </c>
       <c r="D9">
-        <v>1.057769683307074</v>
+        <v>0.894110347475737</v>
       </c>
       <c r="E9">
-        <v>1.06273867565982</v>
+        <v>0.9050875070512204</v>
       </c>
       <c r="F9">
-        <v>1.069425112458935</v>
+        <v>0.9114999270050296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028463156652967</v>
+        <v>1.03746437875273</v>
       </c>
       <c r="J9">
-        <v>1.064388044721041</v>
+        <v>0.9079306156113012</v>
       </c>
       <c r="K9">
-        <v>1.060862843502671</v>
+        <v>0.9091918235825692</v>
       </c>
       <c r="L9">
-        <v>1.065816426539951</v>
+        <v>0.9199342452050316</v>
       </c>
       <c r="M9">
-        <v>1.072482374613625</v>
+        <v>0.926212993595903</v>
       </c>
       <c r="N9">
-        <v>1.06589959783156</v>
+        <v>0.9092199812265663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053914142227469</v>
+        <v>0.8270845043728267</v>
       </c>
       <c r="D10">
-        <v>1.053352894200224</v>
+        <v>0.8492340025732155</v>
       </c>
       <c r="E10">
-        <v>1.058475761367307</v>
+        <v>0.8617959915193449</v>
       </c>
       <c r="F10">
-        <v>1.065116999489558</v>
+        <v>0.8677716015294825</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028301843409431</v>
+        <v>1.033932993933483</v>
       </c>
       <c r="J10">
-        <v>1.060124965100927</v>
+        <v>0.864350962043933</v>
       </c>
       <c r="K10">
-        <v>1.056737617463323</v>
+        <v>0.8669882520745059</v>
       </c>
       <c r="L10">
-        <v>1.061842932968151</v>
+        <v>0.8792065983017076</v>
       </c>
       <c r="M10">
-        <v>1.068461693385813</v>
+        <v>0.8850234751084106</v>
       </c>
       <c r="N10">
-        <v>1.061630464149403</v>
+        <v>0.8655784395524764</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051810375036396</v>
+        <v>0.7985895318046845</v>
       </c>
       <c r="D11">
-        <v>1.051422099653236</v>
+        <v>0.8238289863022231</v>
       </c>
       <c r="E11">
-        <v>1.056611671158382</v>
+        <v>0.8373408589364422</v>
       </c>
       <c r="F11">
-        <v>1.063232379842366</v>
+        <v>0.8431306666736592</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028227586195438</v>
+        <v>1.031955882703569</v>
       </c>
       <c r="J11">
-        <v>1.058260180539964</v>
+        <v>0.83963901369644</v>
       </c>
       <c r="K11">
-        <v>1.054932956951989</v>
+        <v>0.8430643996473181</v>
       </c>
       <c r="L11">
-        <v>1.060104008802551</v>
+        <v>0.8561566095016191</v>
       </c>
       <c r="M11">
-        <v>1.066701379836958</v>
+        <v>0.8617722478659208</v>
       </c>
       <c r="N11">
-        <v>1.05976303138047</v>
+        <v>0.8408313974038299</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051025889532612</v>
+        <v>0.7860963257377581</v>
       </c>
       <c r="D12">
-        <v>1.050702060779343</v>
+        <v>0.8127282887483341</v>
       </c>
       <c r="E12">
-        <v>1.055916424686981</v>
+        <v>0.826669671769224</v>
       </c>
       <c r="F12">
-        <v>1.062529363749193</v>
+        <v>0.8323946412185088</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028199335389026</v>
+        <v>1.031101167562703</v>
       </c>
       <c r="J12">
-        <v>1.057564580091119</v>
+        <v>0.8288325213245784</v>
       </c>
       <c r="K12">
-        <v>1.054259757307709</v>
+        <v>0.8326051074268884</v>
       </c>
       <c r="L12">
-        <v>1.059455235668309</v>
+        <v>0.8460898013403488</v>
       </c>
       <c r="M12">
-        <v>1.06604451789037</v>
+        <v>0.8516333529713475</v>
       </c>
       <c r="N12">
-        <v>1.059066443099201</v>
+        <v>0.8300095585732783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051194304408946</v>
+        <v>0.7888920106155708</v>
       </c>
       <c r="D13">
-        <v>1.050856642548641</v>
+        <v>0.8152102167141287</v>
       </c>
       <c r="E13">
-        <v>1.056065687635945</v>
+        <v>0.8290547469104556</v>
       </c>
       <c r="F13">
-        <v>1.062680299830267</v>
+        <v>0.8347932969667783</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028205425630045</v>
+        <v>1.03129170646689</v>
       </c>
       <c r="J13">
-        <v>1.057713923357612</v>
+        <v>0.8312491178746807</v>
       </c>
       <c r="K13">
-        <v>1.054404292395569</v>
+        <v>0.8349439064333801</v>
       </c>
       <c r="L13">
-        <v>1.059594530712313</v>
+        <v>0.848340240905933</v>
       </c>
       <c r="M13">
-        <v>1.066185554522896</v>
+        <v>0.8538990260962475</v>
       </c>
       <c r="N13">
-        <v>1.059215998450262</v>
+        <v>0.8324295869676691</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051745592188712</v>
+        <v>0.7976055529659446</v>
       </c>
       <c r="D14">
-        <v>1.051362639904131</v>
+        <v>0.822953800966458</v>
       </c>
       <c r="E14">
-        <v>1.056554260417879</v>
+        <v>0.8364991984096942</v>
       </c>
       <c r="F14">
-        <v>1.063174329802368</v>
+        <v>0.8422835160935861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028225264646178</v>
+        <v>1.031888268627714</v>
       </c>
       <c r="J14">
-        <v>1.058202742514026</v>
+        <v>0.8387872115416355</v>
       </c>
       <c r="K14">
-        <v>1.054877369177122</v>
+        <v>0.8422399019811906</v>
       </c>
       <c r="L14">
-        <v>1.060050439922406</v>
+        <v>0.8553628060051678</v>
       </c>
       <c r="M14">
-        <v>1.066647145267998</v>
+        <v>0.8609723957896191</v>
       </c>
       <c r="N14">
-        <v>1.059705511785946</v>
+        <v>0.8399783855922626</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052084850687913</v>
+        <v>0.8026744784398747</v>
       </c>
       <c r="D15">
-        <v>1.05167401989537</v>
+        <v>0.827463844275947</v>
       </c>
       <c r="E15">
-        <v>1.056854906724887</v>
+        <v>0.8408370798530634</v>
       </c>
       <c r="F15">
-        <v>1.063478319369055</v>
+        <v>0.846650364130325</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02823739936414</v>
+        <v>1.032237093344487</v>
       </c>
       <c r="J15">
-        <v>1.058503527814859</v>
+        <v>0.8431764093424312</v>
       </c>
       <c r="K15">
-        <v>1.055168464192695</v>
+        <v>0.846488512846053</v>
       </c>
       <c r="L15">
-        <v>1.060330958753088</v>
+        <v>0.8594536844958914</v>
       </c>
       <c r="M15">
-        <v>1.066931145616353</v>
+        <v>0.8650950973445534</v>
       </c>
       <c r="N15">
-        <v>1.060006724236408</v>
+        <v>0.8443738165573834</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.054053340775595</v>
+        <v>0.8287786262112521</v>
       </c>
       <c r="D16">
-        <v>1.053480640136242</v>
+        <v>0.8507478927032088</v>
       </c>
       <c r="E16">
-        <v>1.058599082294152</v>
+        <v>0.8632546114133743</v>
       </c>
       <c r="F16">
-        <v>1.06524166269054</v>
+        <v>0.8692428251451831</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02830667823147</v>
+        <v>1.034051557451433</v>
       </c>
       <c r="J16">
-        <v>1.060248318777045</v>
+        <v>0.8658226609793127</v>
       </c>
       <c r="K16">
-        <v>1.056856990277479</v>
+        <v>0.8684132349724835</v>
       </c>
       <c r="L16">
-        <v>1.061957944142286</v>
+        <v>0.8805804856177758</v>
       </c>
       <c r="M16">
-        <v>1.068578103936241</v>
+        <v>0.8864108466603876</v>
       </c>
       <c r="N16">
-        <v>1.061753993001891</v>
+        <v>0.8670522284691506</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055282810522547</v>
+        <v>0.8429649393372927</v>
       </c>
       <c r="D17">
-        <v>1.054608912377673</v>
+        <v>0.8634390262544357</v>
       </c>
       <c r="E17">
-        <v>1.059688207717183</v>
+        <v>0.8754877702867031</v>
       </c>
       <c r="F17">
-        <v>1.066342554936718</v>
+        <v>0.8815879029781664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028348950716307</v>
+        <v>1.03504788189521</v>
       </c>
       <c r="J17">
-        <v>1.061337661747505</v>
+        <v>0.8781560056967401</v>
       </c>
       <c r="K17">
-        <v>1.057911157719747</v>
+        <v>0.8803558782469519</v>
       </c>
       <c r="L17">
-        <v>1.062973520813787</v>
+        <v>0.8920986954994204</v>
       </c>
       <c r="M17">
-        <v>1.069605952871002</v>
+        <v>0.8980482296663059</v>
       </c>
       <c r="N17">
-        <v>1.062844882964318</v>
+        <v>0.8794030879507312</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055998062753615</v>
+        <v>0.8506597395359486</v>
       </c>
       <c r="D18">
-        <v>1.055265256602982</v>
+        <v>0.8703328566120072</v>
       </c>
       <c r="E18">
-        <v>1.060321725270748</v>
+        <v>0.8821366362273693</v>
       </c>
       <c r="F18">
-        <v>1.066982843444614</v>
+        <v>0.888302044911227</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028373182710125</v>
+        <v>1.035590471084003</v>
       </c>
       <c r="J18">
-        <v>1.061971246277926</v>
+        <v>0.8848523406690129</v>
       </c>
       <c r="K18">
-        <v>1.058524266481536</v>
+        <v>0.8868406147100339</v>
       </c>
       <c r="L18">
-        <v>1.063564123363702</v>
+        <v>0.8983556401782145</v>
       </c>
       <c r="M18">
-        <v>1.070203621312534</v>
+        <v>0.9043743122701993</v>
       </c>
       <c r="N18">
-        <v>1.063479367257445</v>
+        <v>0.8861089324867448</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05624163048534</v>
+        <v>0.8531986198951527</v>
       </c>
       <c r="D19">
-        <v>1.055488758053856</v>
+        <v>0.8726089334968568</v>
       </c>
       <c r="E19">
-        <v>1.060537444482286</v>
+        <v>0.8843323908163474</v>
       </c>
       <c r="F19">
-        <v>1.067200855701783</v>
+        <v>0.8905200104966284</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028381373319228</v>
+        <v>1.035769758576488</v>
       </c>
       <c r="J19">
-        <v>1.062186978238866</v>
+        <v>0.8870627122986525</v>
       </c>
       <c r="K19">
-        <v>1.058733023685605</v>
+        <v>0.8889812125465142</v>
       </c>
       <c r="L19">
-        <v>1.063765206948216</v>
+        <v>0.9004214302145138</v>
       </c>
       <c r="M19">
-        <v>1.070407098528353</v>
+        <v>0.90646357877982</v>
       </c>
       <c r="N19">
-        <v>1.063695405582514</v>
+        <v>0.8883224430976319</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055151095008557</v>
+        <v>0.8415063480361015</v>
       </c>
       <c r="D20">
-        <v>1.054488042034773</v>
+        <v>0.8621330386591899</v>
       </c>
       <c r="E20">
-        <v>1.059571536703624</v>
+        <v>0.8742284826031129</v>
       </c>
       <c r="F20">
-        <v>1.066224631016253</v>
+        <v>0.8803165957845768</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028344459265166</v>
+        <v>1.034945184170519</v>
       </c>
       <c r="J20">
-        <v>1.061220973608263</v>
+        <v>0.8768871792895737</v>
       </c>
       <c r="K20">
-        <v>1.057798239265061</v>
+        <v>0.879127185103611</v>
       </c>
       <c r="L20">
-        <v>1.062864742432393</v>
+        <v>0.8909133677866038</v>
       </c>
       <c r="M20">
-        <v>1.069495867340812</v>
+        <v>0.8968501452974734</v>
       </c>
       <c r="N20">
-        <v>1.062728029114534</v>
+        <v>0.8781324596645301</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051583336910694</v>
+        <v>0.7951058984210928</v>
       </c>
       <c r="D21">
-        <v>1.05121371600412</v>
+        <v>0.8207311871582221</v>
       </c>
       <c r="E21">
-        <v>1.056410467160771</v>
+        <v>0.834361979522781</v>
       </c>
       <c r="F21">
-        <v>1.063028933517012</v>
+        <v>0.8401326416047133</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028219441051515</v>
+        <v>1.031716726253653</v>
       </c>
       <c r="J21">
-        <v>1.058058879378084</v>
+        <v>0.836623836493582</v>
       </c>
       <c r="K21">
-        <v>1.054738139874437</v>
+        <v>0.8401459207405405</v>
       </c>
       <c r="L21">
-        <v>1.059916265759108</v>
+        <v>0.8533469639840862</v>
       </c>
       <c r="M21">
-        <v>1.066511302005811</v>
+        <v>0.8589414702312547</v>
       </c>
       <c r="N21">
-        <v>1.059561444347851</v>
+        <v>0.837811938303498</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049322422938154</v>
+        <v>0.7526784376069431</v>
       </c>
       <c r="D22">
-        <v>1.049138439120744</v>
+        <v>0.7831653735371608</v>
       </c>
       <c r="E22">
-        <v>1.054406490579207</v>
+        <v>0.7983000717557678</v>
       </c>
       <c r="F22">
-        <v>1.061002351323617</v>
+        <v>0.80390675652432</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028136966922653</v>
+        <v>1.028859915927741</v>
       </c>
       <c r="J22">
-        <v>1.056053701440421</v>
+        <v>0.8000280284664557</v>
       </c>
       <c r="K22">
-        <v>1.052797485476316</v>
+        <v>0.8047359377907559</v>
       </c>
       <c r="L22">
-        <v>1.058045847638856</v>
+        <v>0.8193024391904365</v>
       </c>
       <c r="M22">
-        <v>1.064617361226256</v>
+        <v>0.8247062355784184</v>
       </c>
       <c r="N22">
-        <v>1.057553418827519</v>
+        <v>0.8011641600313755</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050522696389608</v>
+        <v>0.777303961519863</v>
       </c>
       <c r="D23">
-        <v>1.050240190654693</v>
+        <v>0.8049310773999163</v>
       </c>
       <c r="E23">
-        <v>1.055470434407311</v>
+        <v>0.8191799373804434</v>
       </c>
       <c r="F23">
-        <v>1.062078357879606</v>
+        <v>0.8248657873267818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028181056996184</v>
+        <v>1.030504816365822</v>
       </c>
       <c r="J23">
-        <v>1.057118335792264</v>
+        <v>0.8212388840998684</v>
       </c>
       <c r="K23">
-        <v>1.053827876156322</v>
+        <v>0.8252565570133085</v>
       </c>
       <c r="L23">
-        <v>1.059038998255858</v>
+        <v>0.8390212087448113</v>
       </c>
       <c r="M23">
-        <v>1.065623060574729</v>
+        <v>0.8445203137357353</v>
       </c>
       <c r="N23">
-        <v>1.058619565082257</v>
+        <v>0.8224051375127067</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05521061737186</v>
+        <v>0.842167168208097</v>
       </c>
       <c r="D24">
-        <v>1.05454266356568</v>
+        <v>0.8627246900210356</v>
       </c>
       <c r="E24">
-        <v>1.059624260716971</v>
+        <v>0.8747989657094554</v>
       </c>
       <c r="F24">
-        <v>1.066277921449956</v>
+        <v>0.880892510174742</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028346490071037</v>
+        <v>1.034991705189976</v>
       </c>
       <c r="J24">
-        <v>1.06127370554493</v>
+        <v>0.8774620054077245</v>
       </c>
       <c r="K24">
-        <v>1.057849267715412</v>
+        <v>0.8796838277163455</v>
       </c>
       <c r="L24">
-        <v>1.062913900152391</v>
+        <v>0.8914503560162175</v>
       </c>
       <c r="M24">
-        <v>1.069545615990366</v>
+        <v>0.8973928989962462</v>
       </c>
       <c r="N24">
-        <v>1.062780835936599</v>
+        <v>0.8787081021017022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060577461179434</v>
+        <v>0.8930957079968479</v>
       </c>
       <c r="D25">
-        <v>1.059466840484667</v>
+        <v>0.9084630865000389</v>
       </c>
       <c r="E25">
-        <v>1.064376202729487</v>
+        <v>0.918953236459738</v>
       </c>
       <c r="F25">
-        <v>1.071079313321076</v>
+        <v>0.9255292811179489</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028521820747061</v>
+        <v>1.038592873866396</v>
       </c>
       <c r="J25">
-        <v>1.066025096535231</v>
+        <v>0.9218467340989172</v>
       </c>
       <c r="K25">
-        <v>1.062446803120786</v>
+        <v>0.9226706637884949</v>
       </c>
       <c r="L25">
-        <v>1.067341552620832</v>
+        <v>0.9329550801750114</v>
       </c>
       <c r="M25">
-        <v>1.074024946704704</v>
+        <v>0.9394052638388097</v>
       </c>
       <c r="N25">
-        <v>1.067538974447099</v>
+        <v>0.923155862198636</v>
       </c>
     </row>
   </sheetData>
